--- a/Industry/201612-201908/HKD/MILLION/Analysis_109_19 - Packaging_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_109_19 - Packaging_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1920" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -34527,6 +34528,2923 @@
   <cols>
     <col bestFit="1" customWidth="1" max="2" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="4" min="3" width="10"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" width="10"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="8"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="10"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="4" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" t="n">
+        <v>24025.195</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23269.982</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.143</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15071.541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23149.824</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.516</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14206.519</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-5.739</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4244.374</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4122.171</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.879</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3027.572</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4925.838</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19.496</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3287.552</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.587</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.666</v>
+      </c>
+      <c r="L3" t="n">
+        <v>17.715</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.088</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.278</v>
+      </c>
+      <c r="O3" t="n">
+        <v>23.141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2883.113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2584.731</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-10.349</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1748.137</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2805.907</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.557</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1620.992</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-7.273</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11.108</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11.599</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12.121</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2609.294</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2388.863</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-8.448</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1526.388</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2419.383</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.278</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1613.043</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.677</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.861</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.266</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.128</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.451</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11.354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1897.726</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2014.755</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.167</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1316.682</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2008.666</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.302</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1324.16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.899</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.657999999999999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.736000000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.677</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1385.498</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1384.467</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="F7" t="n">
+        <v>970.063</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1458.492</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.347</v>
+      </c>
+      <c r="I7" t="n">
+        <v>800.327</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-17.497</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.767</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.436</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1329.337</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1465.196</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>812.3099999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1216.634</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-16.964</v>
+      </c>
+      <c r="I8" t="n">
+        <v>685.385</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-15.625</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.533</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.297</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.255</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1215.151</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1117.093</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-8.07</v>
+      </c>
+      <c r="F9" t="n">
+        <v>747.123</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1123.164</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="I9" t="n">
+        <v>639.3390000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-14.427</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.058</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.801</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.957</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.852</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" t="n">
+        <v>991.306</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1128.474</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.837</v>
+      </c>
+      <c r="F10" t="n">
+        <v>563.232</v>
+      </c>
+      <c r="G10" t="n">
+        <v>802.812</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-28.859</v>
+      </c>
+      <c r="I10" t="n">
+        <v>517.902</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-8.048</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.849</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1359.412</v>
+      </c>
+      <c r="D11" t="n">
+        <v>892.857</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-34.32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>443.604</v>
+      </c>
+      <c r="G11" t="n">
+        <v>644.74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-27.789</v>
+      </c>
+      <c r="I11" t="n">
+        <v>429.897</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.658</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.837</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.943</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.785</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" t="n">
+        <v>571.0700000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>667.801</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16.939</v>
+      </c>
+      <c r="F12" t="n">
+        <v>546.181</v>
+      </c>
+      <c r="G12" t="n">
+        <v>761.503</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14.031</v>
+      </c>
+      <c r="I12" t="n">
+        <v>348.426</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-36.207</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.624</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" t="n">
+        <v>574.178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>519.425</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-9.536</v>
+      </c>
+      <c r="F13" t="n">
+        <v>332.259</v>
+      </c>
+      <c r="G13" t="n">
+        <v>499.824</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3.774</v>
+      </c>
+      <c r="I13" t="n">
+        <v>301.902</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-9.137</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.205</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" t="n">
+        <v>274.773</v>
+      </c>
+      <c r="D14" t="n">
+        <v>264.561</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3.716</v>
+      </c>
+      <c r="F14" t="n">
+        <v>164.974</v>
+      </c>
+      <c r="G14" t="n">
+        <v>257.265</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-2.758</v>
+      </c>
+      <c r="I14" t="n">
+        <v>299.085</v>
+      </c>
+      <c r="J14" t="n">
+        <v>81.292</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" t="n">
+        <v>685.912</v>
+      </c>
+      <c r="D15" t="n">
+        <v>768.456</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.034</v>
+      </c>
+      <c r="F15" t="n">
+        <v>365.034</v>
+      </c>
+      <c r="G15" t="n">
+        <v>527.595</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-31.343</v>
+      </c>
+      <c r="I15" t="n">
+        <v>254.153</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-30.375</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.855</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.302</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.279</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" t="n">
+        <v>506.88</v>
+      </c>
+      <c r="D16" t="n">
+        <v>497.44</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.862</v>
+      </c>
+      <c r="F16" t="n">
+        <v>342.151</v>
+      </c>
+      <c r="G16" t="n">
+        <v>497.476</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I16" t="n">
+        <v>231.58</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-32.316</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.149</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" t="n">
+        <v>281.048</v>
+      </c>
+      <c r="D17" t="n">
+        <v>269.953</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-3.948</v>
+      </c>
+      <c r="F17" t="n">
+        <v>194.631</v>
+      </c>
+      <c r="G17" t="n">
+        <v>285.475</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>180.509</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-7.256</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" t="n">
+        <v>393.009</v>
+      </c>
+      <c r="D18" t="n">
+        <v>366.422</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-6.765</v>
+      </c>
+      <c r="F18" t="n">
+        <v>202.618</v>
+      </c>
+      <c r="G18" t="n">
+        <v>292.242</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-20.244</v>
+      </c>
+      <c r="I18" t="n">
+        <v>175.826</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-13.223</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" t="n">
+        <v>421.627</v>
+      </c>
+      <c r="D19" t="n">
+        <v>317.198</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-24.768</v>
+      </c>
+      <c r="F19" t="n">
+        <v>217.684</v>
+      </c>
+      <c r="G19" t="n">
+        <v>308.616</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-2.706</v>
+      </c>
+      <c r="I19" t="n">
+        <v>163.723</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-24.788</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" t="n">
+        <v>277.976</v>
+      </c>
+      <c r="D20" t="n">
+        <v>254.75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-8.356</v>
+      </c>
+      <c r="F20" t="n">
+        <v>235.818</v>
+      </c>
+      <c r="G20" t="n">
+        <v>354.466</v>
+      </c>
+      <c r="H20" t="n">
+        <v>39.143</v>
+      </c>
+      <c r="I20" t="n">
+        <v>163.129</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-30.824</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" t="n">
+        <v>287.348</v>
+      </c>
+      <c r="D21" t="n">
+        <v>308.114</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.227</v>
+      </c>
+      <c r="F21" t="n">
+        <v>179.221</v>
+      </c>
+      <c r="G21" t="n">
+        <v>255.371</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-17.118</v>
+      </c>
+      <c r="I21" t="n">
+        <v>151.302</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-15.578</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.189</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" t="n">
+        <v>229.238</v>
+      </c>
+      <c r="D22" t="n">
+        <v>265.324</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15.741</v>
+      </c>
+      <c r="F22" t="n">
+        <v>178.282</v>
+      </c>
+      <c r="G22" t="n">
+        <v>271.019</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="I22" t="n">
+        <v>144.255</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-19.086</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" t="n">
+        <v>224.231</v>
+      </c>
+      <c r="D23" t="n">
+        <v>238.535</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.379</v>
+      </c>
+      <c r="F23" t="n">
+        <v>140.41</v>
+      </c>
+      <c r="G23" t="n">
+        <v>195.268</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-18.138</v>
+      </c>
+      <c r="I23" t="n">
+        <v>104.351</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-25.681</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" t="n">
+        <v>189.693</v>
+      </c>
+      <c r="D24" t="n">
+        <v>249.877</v>
+      </c>
+      <c r="E24" t="n">
+        <v>31.727</v>
+      </c>
+      <c r="F24" t="n">
+        <v>96.316</v>
+      </c>
+      <c r="G24" t="n">
+        <v>156.364</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-37.423</v>
+      </c>
+      <c r="I24" t="n">
+        <v>92.616</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-3.841</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" t="n">
+        <v>123.154</v>
+      </c>
+      <c r="D25" t="n">
+        <v>126.602</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.799</v>
+      </c>
+      <c r="F25" t="n">
+        <v>75.212</v>
+      </c>
+      <c r="G25" t="n">
+        <v>127.268</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="I25" t="n">
+        <v>77.05</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.792</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.143</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-30.133</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33.738</v>
+      </c>
+      <c r="G26" t="n">
+        <v>65.413</v>
+      </c>
+      <c r="H26" t="n">
+        <v>964.913</v>
+      </c>
+      <c r="I26" t="n">
+        <v>69.02800000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" t="n">
+        <v>176.729</v>
+      </c>
+      <c r="D27" t="n">
+        <v>146.845</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-16.91</v>
+      </c>
+      <c r="F27" t="n">
+        <v>78.71899999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>110.473</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-24.769</v>
+      </c>
+      <c r="I27" t="n">
+        <v>63.878</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-18.853</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" t="n">
+        <v>48.918</v>
+      </c>
+      <c r="D28" t="n">
+        <v>96.53700000000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>97.345</v>
+      </c>
+      <c r="F28" t="n">
+        <v>73.88800000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>100.096</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.686</v>
+      </c>
+      <c r="I28" t="n">
+        <v>54.281</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-26.537</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" t="n">
+        <v>43.106</v>
+      </c>
+      <c r="D29" t="n">
+        <v>58.556</v>
+      </c>
+      <c r="E29" t="n">
+        <v>35.842</v>
+      </c>
+      <c r="F29" t="n">
+        <v>42.212</v>
+      </c>
+      <c r="G29" t="n">
+        <v>64.554</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10.243</v>
+      </c>
+      <c r="I29" t="n">
+        <v>49.36</v>
+      </c>
+      <c r="J29" t="n">
+        <v>16.933</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" t="n">
+        <v>134.826</v>
+      </c>
+      <c r="D30" t="n">
+        <v>145.387</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.833</v>
+      </c>
+      <c r="F30" t="n">
+        <v>61.816</v>
+      </c>
+      <c r="G30" t="n">
+        <v>85.748</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-41.021</v>
+      </c>
+      <c r="I30" t="n">
+        <v>41.865</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-32.274</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C31" t="n">
+        <v>85.889</v>
+      </c>
+      <c r="D31" t="n">
+        <v>106.021</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23.439</v>
+      </c>
+      <c r="F31" t="n">
+        <v>48.419</v>
+      </c>
+      <c r="G31" t="n">
+        <v>69.498</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-34.449</v>
+      </c>
+      <c r="I31" t="n">
+        <v>39.557</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-18.302</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" t="n">
+        <v>73.917</v>
+      </c>
+      <c r="D32" t="n">
+        <v>57.723</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-21.909</v>
+      </c>
+      <c r="F32" t="n">
+        <v>39.581</v>
+      </c>
+      <c r="G32" t="n">
+        <v>62.537</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.340999999999999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>37.594</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-5.019</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" t="n">
+        <v>53.526</v>
+      </c>
+      <c r="D33" t="n">
+        <v>56.272</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.131</v>
+      </c>
+      <c r="F33" t="n">
+        <v>38.921</v>
+      </c>
+      <c r="G33" t="n">
+        <v>58.58</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="I33" t="n">
+        <v>34.936</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-10.238</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" t="n">
+        <v>52.644</v>
+      </c>
+      <c r="D34" t="n">
+        <v>47.307</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-10.137</v>
+      </c>
+      <c r="F34" t="n">
+        <v>24.564</v>
+      </c>
+      <c r="G34" t="n">
+        <v>41.085</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-13.153</v>
+      </c>
+      <c r="I34" t="n">
+        <v>28.619</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16.507</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31.679</v>
+      </c>
+      <c r="D35" t="n">
+        <v>27.193</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-14.163</v>
+      </c>
+      <c r="F35" t="n">
+        <v>19.995</v>
+      </c>
+      <c r="G35" t="n">
+        <v>30.714</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="I35" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.227</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" t="n">
+        <v>97.538</v>
+      </c>
+      <c r="D36" t="n">
+        <v>76.014</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-22.068</v>
+      </c>
+      <c r="F36" t="n">
+        <v>23.088</v>
+      </c>
+      <c r="G36" t="n">
+        <v>33.249</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-56.259</v>
+      </c>
+      <c r="I36" t="n">
+        <v>20.968</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-9.183</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16.313</v>
+      </c>
+      <c r="D37" t="n">
+        <v>13.443</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-17.592</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14.879</v>
+      </c>
+      <c r="G37" t="n">
+        <v>24.571</v>
+      </c>
+      <c r="H37" t="n">
+        <v>82.78100000000001</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19.334</v>
+      </c>
+      <c r="J37" t="n">
+        <v>29.939</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" t="n">
+        <v>47.922</v>
+      </c>
+      <c r="D38" t="n">
+        <v>29.101</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-39.275</v>
+      </c>
+      <c r="F38" t="n">
+        <v>18.862</v>
+      </c>
+      <c r="G38" t="n">
+        <v>29.016</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.293</v>
+      </c>
+      <c r="I38" t="n">
+        <v>18.689</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.916</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" t="n">
+        <v>23.243</v>
+      </c>
+      <c r="D39" t="n">
+        <v>27.199</v>
+      </c>
+      <c r="E39" t="n">
+        <v>17.016</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12.651</v>
+      </c>
+      <c r="G39" t="n">
+        <v>18.116</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-33.394</v>
+      </c>
+      <c r="I39" t="n">
+        <v>17.048</v>
+      </c>
+      <c r="J39" t="n">
+        <v>34.759</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10.884</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.642</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-48.162</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5.567</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8.755000000000001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>55.179</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11.274</v>
+      </c>
+      <c r="J40" t="n">
+        <v>102.523</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" t="n">
+        <v>37.706</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25.008</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-33.677</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21.825</v>
+      </c>
+      <c r="G41" t="n">
+        <v>33.141</v>
+      </c>
+      <c r="H41" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11.062</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-49.316</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42" t="n">
+        <v>13.869</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14.745</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18.389</v>
+      </c>
+      <c r="G42" t="n">
+        <v>23.968</v>
+      </c>
+      <c r="H42" t="n">
+        <v>62.558</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10.894</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-40.759</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13.032</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13.211</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.377</v>
+      </c>
+      <c r="F43" t="n">
+        <v>11.736</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13.592</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.887</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-17.347</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="B44" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-29.138</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.995</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.065</v>
+      </c>
+      <c r="H44" t="n">
+        <v>518.543</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.894</v>
+      </c>
+      <c r="J44" t="n">
+        <v>72.542</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.861</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.561</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-5.111</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.304</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8.430999999999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>51.604</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J45" t="n">
+        <v>26.375</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17.306</v>
+      </c>
+      <c r="D46" t="n">
+        <v>18.146</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.854</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12.416</v>
+      </c>
+      <c r="G46" t="n">
+        <v>16.783</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-7.51</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.294</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-57.358</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-21.614</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-4.551</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.819</v>
+      </c>
+      <c r="J47" t="n">
+        <v>196.469</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17.737</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19.196</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.227</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13.941</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-27.377</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.187</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-73.03700000000001</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.729</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.738</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-17.287</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.317</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8.414999999999999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>77.595</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.953</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-31.602</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7.955</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-26.947</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.406</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-44.619</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15.603</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="B51" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C51" t="n">
+        <v>14.769</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12.198</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-17.409</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-57.121</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.706</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-21.743</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="B52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-45.307</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-98.75700000000001</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.262</v>
+      </c>
+      <c r="J52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="B53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6.177</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="E53" t="n">
+        <v>41.511</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.646</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-35.404</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.631</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-60.033</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="B54" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.488</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.218</v>
+      </c>
+      <c r="E54" t="n">
+        <v>60.848</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-66.733</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-42.736</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="B55" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-37.848</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4.681</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="H55" t="n">
+        <v>188.691</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-86.85899999999999</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="E56" t="n">
+        <v>20.787</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-13.712</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="J56" t="n">
+        <v>96.67</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3015.158</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-95.812</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="J57" t="n">
+        <v>97.51300000000001</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-32.347</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-32.356</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-14.637</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-63.331</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-10.83</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-48.453</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.281</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1960.356</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-94.244</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="J60" t="n">
+        <v>335.859</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="B61" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-60.695</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H61" t="n">
+        <v>34.678</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.968</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="B62" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-8.935</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-27.129</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-96.56</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="B63" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" width="10"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="8"/>
     <col bestFit="1" customWidth="1" max="7" min="6" width="10"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="8"/>
